--- a/data/CCCM_SiteID_Cleaning log (V1)_Master_Script_V1.xlsx
+++ b/data/CCCM_SiteID_Cleaning log (V1)_Master_Script_V1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="257">
   <si>
     <t>uuid</t>
   </si>
@@ -791,6 +791,12 @@
   </si>
   <si>
     <t>Tareq bin Zeyad Primary School</t>
+  </si>
+  <si>
+    <t>2da60a84-7ad0-4e52-a40d-c0595d7ef2df</t>
+  </si>
+  <si>
+    <t>Onaibat</t>
   </si>
 </sst>
 </file>
@@ -892,10 +898,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,25 +1200,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="D82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="128.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="128.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -1436,7 +1442,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>151</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>184</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>176</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>248</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>251</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -3036,7 +3042,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -3388,7 +3394,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -3644,7 +3650,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>67</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -4060,7 +4066,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -4092,7 +4098,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -4156,7 +4162,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>43</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>43</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>56</v>
       </c>
@@ -4252,7 +4258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>53</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>240</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>240</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>240</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>234</v>
       </c>
@@ -4476,7 +4482,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>238</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>238</v>
       </c>
@@ -4524,7 +4530,7 @@
       <c r="E104" t="s">
         <v>105</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G104" s="9" t="s">
@@ -4540,7 +4546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>242</v>
       </c>
@@ -4572,7 +4578,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>242</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>253</v>
       </c>
@@ -4636,7 +4642,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>246</v>
       </c>
@@ -4668,7 +4674,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>244</v>
       </c>
@@ -4700,13 +4706,39 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>255</v>
+      </c>
+      <c r="B110" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" t="s">
+        <v>99</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -4731,24 +4763,24 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>202</v>
       </c>
@@ -4762,7 +4794,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>191</v>
       </c>
@@ -4776,7 +4808,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>192</v>
       </c>
@@ -4790,7 +4822,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>193</v>
       </c>
@@ -4804,7 +4836,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>147</v>
       </c>
@@ -4814,7 +4846,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>194</v>
       </c>
@@ -4824,7 +4856,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>140</v>
       </c>
@@ -4834,7 +4866,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>149</v>
       </c>
@@ -4844,7 +4876,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>195</v>
       </c>
@@ -4854,7 +4886,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>196</v>
       </c>
@@ -4864,7 +4896,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>197</v>
       </c>
@@ -4874,7 +4906,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>198</v>
       </c>
@@ -4884,7 +4916,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>150</v>
       </c>
@@ -4894,7 +4926,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -4902,15 +4934,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>202</v>
       </c>
@@ -4924,7 +4956,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>133</v>
       </c>
@@ -4936,7 +4968,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>132</v>
@@ -4944,15 +4976,15 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>202</v>
       </c>
@@ -4966,7 +4998,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>136</v>
       </c>
@@ -4980,7 +5012,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>135</v>
@@ -4990,7 +5022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -4998,7 +5030,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5006,7 +5038,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5014,7 +5046,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -5022,7 +5054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5030,7 +5062,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -5038,15 +5070,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>202</v>
       </c>
@@ -5060,7 +5092,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>150</v>
       </c>
@@ -5074,7 +5106,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5086,7 +5118,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
         <v>141</v>
@@ -5096,7 +5128,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -5104,7 +5136,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -5112,7 +5144,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -5120,7 +5152,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -5128,7 +5160,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5136,7 +5168,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5144,7 +5176,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5152,7 +5184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5160,7 +5192,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -5168,7 +5200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5176,15 +5208,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>202</v>
       </c>
@@ -5198,7 +5230,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>232</v>
       </c>
@@ -5212,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11" t="s">
         <v>141</v>
